--- a/eDNA 12S metab/example_output/taxonomic_assignments/Choice_required_GMGI_multiplehits.xlsx
+++ b/eDNA 12S metab/example_output/taxonomic_assignments/Choice_required_GMGI_multiplehits.xlsx
@@ -963,7 +963,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>291/422</t>
+          <t>290/422</t>
         </is>
       </c>
       <c r="H6">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>291/422</t>
+          <t>290/422</t>
         </is>
       </c>
       <c r="H7">

--- a/eDNA 12S metab/example_output/taxonomic_assignments/Choice_required_GMGI_multiplehits.xlsx
+++ b/eDNA 12S metab/example_output/taxonomic_assignments/Choice_required_GMGI_multiplehits.xlsx
@@ -1192,7 +1192,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>357/422</t>
+          <t>355/422</t>
         </is>
       </c>
       <c r="H8">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>357/422</t>
+          <t>355/422</t>
         </is>
       </c>
       <c r="H9">
